--- a/Backup/ΚΤΕΟ.xlsx
+++ b/Backup/ΚΤΕΟ.xlsx
@@ -6,14 +6,14 @@
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="test 640" r:id="rId3" sheetId="1"/>
-    <sheet name="test 7418" r:id="rId4" sheetId="2"/>
+    <sheet name="test 7418" r:id="rId3" sheetId="1"/>
+    <sheet name="test 640" r:id="rId4" sheetId="2"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="9">
   <si>
     <t>Ημερομηνία</t>
   </si>
@@ -33,19 +33,13 @@
     <t>Τιμή</t>
   </si>
   <si>
-    <t>2020-11-29</t>
+    <t>2020-12-05</t>
   </si>
   <si>
-    <t>2021-11-29</t>
+    <t>2022-12-05</t>
   </si>
   <si>
     <t>Σπίτι</t>
-  </si>
-  <si>
-    <t>2020-11-14</t>
-  </si>
-  <si>
-    <t>2022-11-14</t>
   </si>
 </sst>
 </file>
@@ -143,7 +137,7 @@
         <v>6</v>
       </c>
       <c r="B2" t="n">
-        <v>30010.0</v>
+        <v>25150.0</v>
       </c>
       <c r="C2" t="s">
         <v>7</v>
@@ -163,7 +157,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -197,24 +191,6 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" t="n">
-        <v>25100.0</v>
-      </c>
-      <c r="C2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2"/>
-      <c r="F2" t="n">
-        <v>150.0</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/Backup/ΚΤΕΟ.xlsx
+++ b/Backup/ΚΤΕΟ.xlsx
@@ -6,14 +6,14 @@
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="test 7418" r:id="rId3" sheetId="1"/>
-    <sheet name="test 640" r:id="rId4" sheetId="2"/>
+    <sheet name="test 640" r:id="rId3" sheetId="1"/>
+    <sheet name="test 7418" r:id="rId4" sheetId="2"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="12">
   <si>
     <t>Ημερομηνία</t>
   </si>
@@ -33,13 +33,22 @@
     <t>Τιμή</t>
   </si>
   <si>
+    <t>2021-01-08</t>
+  </si>
+  <si>
+    <t>2022-01-08</t>
+  </si>
+  <si>
+    <t>Σπίτι</t>
+  </si>
+  <si>
+    <t>σαδσφδσφαρ</t>
+  </si>
+  <si>
     <t>2020-12-05</t>
   </si>
   <si>
     <t>2022-12-05</t>
-  </si>
-  <si>
-    <t>Σπίτι</t>
   </si>
 </sst>
 </file>
@@ -137,7 +146,7 @@
         <v>6</v>
       </c>
       <c r="B2" t="n">
-        <v>25150.0</v>
+        <v>453646.0</v>
       </c>
       <c r="C2" t="s">
         <v>7</v>
@@ -145,7 +154,9 @@
       <c r="D2" t="s">
         <v>8</v>
       </c>
-      <c r="E2"/>
+      <c r="E2" t="s">
+        <v>9</v>
+      </c>
       <c r="F2" t="n">
         <v>150.0</v>
       </c>
@@ -157,7 +168,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -191,6 +202,24 @@
         <v>5</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" t="n">
+        <v>25150.0</v>
+      </c>
+      <c r="C2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2"/>
+      <c r="F2" t="n">
+        <v>150.0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
